--- a/2022.World-fondsen.xlsx
+++ b/2022.World-fondsen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C704F520-209D-4327-B403-805EBED1755B}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE96ACA-D4CA-4521-9808-04BCD3D089DA}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="2670" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="2865" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Nederlands</t>
   </si>
@@ -153,22 +153,10 @@
     <t>Opmaak</t>
   </si>
   <si>
-    <t>VanEck TGET</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>Northern Trust NTEM</t>
-  </si>
-  <si>
-    <t>Northern Trust NTSC</t>
-  </si>
-  <si>
-    <t>Vanguard 2 fund</t>
-  </si>
-  <si>
-    <t>Vanguard VFEM</t>
+    <t>VanEck TSWE</t>
+  </si>
+  <si>
+    <t>gem afgelopen 5 jaar</t>
   </si>
 </sst>
 </file>
@@ -226,7 +214,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -237,6 +225,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -354,22 +343,22 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Actiam ADIAW</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Vanguard VTI-VXUS</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Actiam ADIAW</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>Northern Trust NTWC</c:v>
+                  <c:v>VanEck TSWE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VanEck TGET</c:v>
+                  <c:v>Nationale Nederlanden NNDM</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Invesco/Vanguard</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Nationale Nederlanden NNDM</c:v>
+                  <c:v>Northern Trust NTWC</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Vanguard VEVE</c:v>
@@ -384,31 +373,31 @@
             <c:numRef>
               <c:f>Sheet1!$G$11:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2052337568561505E-3</c:v>
+                  <c:v>1.1637500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1558210749848621E-3</c:v>
+                  <c:v>1.3824131796438162E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4337499999999997E-3</c:v>
+                  <c:v>2.1837499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2087499999999998E-3</c:v>
+                  <c:v>2.19375E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3015327507945084E-3</c:v>
+                  <c:v>2.2233415202718857E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4037500000000001E-3</c:v>
+                  <c:v>2.2737499999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.28E-3</c:v>
+                  <c:v>4.3600000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8599999999999997E-3</c:v>
+                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +479,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1401,13 +1390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
@@ -1446,24 +1435,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D7" si="0">C5*$C$1</f>
-        <v>1.15E-3</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>5.16E-2</v>
+      <c r="C6" s="10">
+        <v>0.05</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>1.2900000000000001E-3</v>
+        <v>1.2500000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1506,78 +1497,76 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.8000000000000001E-4</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <f>$J$38</f>
-        <v>5.5233756856150531E-5</v>
-      </c>
-      <c r="G11" s="4">
-        <f>F11+$D$5</f>
-        <v>1.2052337568561505E-3</v>
+        <f>SUM(C11:E11)</f>
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11+$D$4</f>
+        <v>1.1637500000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.7207107498486197E-4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <f>SUM(C12:E12)</f>
-        <v>9.7207107498486199E-4</v>
-      </c>
-      <c r="G12" s="4">
-        <f>F12+$D$4</f>
-        <v>1.1558210749848621E-3</v>
+        <f>$J$38</f>
+        <v>1.824131796438161E-4</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12+$D$5</f>
+        <v>1.3824131796438162E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4.4999999999999999E-4</v>
-      </c>
+        <v>2E-3</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
         <f>SUM(C13:E13)</f>
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="G13" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="G13" s="1">
         <f>F13+$D$4</f>
-        <v>2.4337499999999997E-3</v>
+        <v>2.1837499999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>1.9E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>1.25E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
         <f>SUM(C14:E14)</f>
-        <v>2.0249999999999999E-3</v>
-      </c>
-      <c r="G14" s="4">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="G14" s="1">
         <f>F14+$D$4</f>
-        <v>2.2087499999999998E-3</v>
+        <v>2.19375E-3</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1589,31 +1578,31 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4">
         <f>$J$33</f>
-        <v>1.0115327507945085E-3</v>
-      </c>
-      <c r="G15" s="4">
+        <v>9.7334152027188543E-4</v>
+      </c>
+      <c r="G15" s="1">
         <f>F15+$D$6</f>
-        <v>2.3015327507945084E-3</v>
+        <v>2.2233415202718857E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>1.75E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>4.6999999999999999E-4</v>
+        <v>2.9E-4</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <f>SUM(C16:E16)</f>
-        <v>2.2200000000000002E-3</v>
-      </c>
-      <c r="G16" s="4">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="G16" s="1">
         <f>F16+$D$4</f>
-        <v>2.4037500000000001E-3</v>
+        <v>2.2737499999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1624,18 +1613,18 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>2.7E-4</v>
       </c>
       <c r="E17" s="4">
-        <v>-1.2E-4</v>
+        <v>-1.1E-4</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(C17:E17)</f>
-        <v>1.2799999999999999E-3</v>
-      </c>
-      <c r="G17" s="4">
+        <v>1.3599999999999999E-3</v>
+      </c>
+      <c r="G17" s="1">
         <f>F17+$D$7</f>
-        <v>4.28E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1646,18 +1635,18 @@
         <v>2E-3</v>
       </c>
       <c r="D18" s="4">
-        <v>1.2999999999999999E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="E18" s="4">
-        <v>-2.7E-4</v>
+        <v>-2.1000000000000001E-4</v>
       </c>
       <c r="F18" s="4">
         <f>SUM(C18:E18)</f>
-        <v>1.8599999999999999E-3</v>
-      </c>
-      <c r="G18" s="4">
+        <v>1.8999999999999998E-3</v>
+      </c>
+      <c r="G18" s="1">
         <f>F18+$D$7</f>
-        <v>4.8599999999999997E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1699,7 +1688,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4">
@@ -1712,15 +1701,15 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H29" s="7">
-        <v>39012154.270000003</v>
+        <v>36845557</v>
       </c>
       <c r="I29" s="2">
         <f>H29/$H$33</f>
-        <v>0.67046048706901906</v>
+        <v>0.69735987271959954</v>
       </c>
       <c r="J29" s="4">
         <f>F29*I29</f>
-        <v>6.0341443836211715E-4</v>
+        <v>6.2762388544763958E-4</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1731,25 +1720,25 @@
         <v>1E-3</v>
       </c>
       <c r="D30" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="E30" s="4">
-        <v>-2.5000000000000001E-4</v>
+        <v>-2.7E-4</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ref="F30:F32" si="1">SUM(C30:E30)</f>
-        <v>1.0499999999999999E-3</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="H30" s="7">
-        <v>11313077</v>
+        <v>9434145</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" ref="I30:I32" si="2">H30/$H$33</f>
-        <v>0.19442584644709282</v>
+        <v>0.17855596962255846</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" ref="J30:J32" si="3">F30*I30</f>
-        <v>2.0414713876944744E-4</v>
+        <v>1.5712925326785143E-4</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1760,25 +1749,25 @@
         <v>1.5E-3</v>
       </c>
       <c r="D31" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="E31" s="4">
-        <v>-3.3E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
-        <v>1.47E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H31" s="7">
-        <v>3411321</v>
+        <v>2845983</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>5.8626753174909278E-2</v>
+        <v>5.3864685575038103E-2</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="3"/>
-        <v>8.6181327167116634E-5</v>
+        <v>8.8876731198812863E-5</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1789,35 +1778,35 @@
         <v>1.5E-3</v>
       </c>
       <c r="D32" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="E32" s="4">
-        <v>-1.6000000000000001E-4</v>
+        <v>-1.2E-4</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="1"/>
-        <v>1.5400000000000001E-3</v>
+        <v>1.42E-3</v>
       </c>
       <c r="H32" s="7">
-        <v>4450552</v>
+        <v>3710101</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>7.6486913308978791E-2</v>
+        <v>7.021947208280388E-2</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="3"/>
-        <v>1.1778984649582735E-4</v>
+        <v>9.9711650357581517E-5</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H33" s="7">
         <f>SUM(H29:H32)</f>
-        <v>58187104.270000003</v>
+        <v>52835786</v>
       </c>
       <c r="J33" s="4">
         <f>SUM(J29:J32)</f>
-        <v>1.0115327507945085E-3</v>
+        <v>9.7334152027188543E-4</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -1854,23 +1843,23 @@
       <c r="C36" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E36" s="1">
-        <v>-3.6999999999999999E-4</v>
+      <c r="E36" s="4">
+        <v>-1.4999999999999999E-4</v>
       </c>
       <c r="F36" s="1">
         <f>SUM(C36:E36)</f>
-        <v>-7.0000000000000021E-5</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="H36" s="8">
-        <v>44358982</v>
+        <v>37426114</v>
       </c>
       <c r="I36" s="2">
         <f>H36/$H$38</f>
-        <v>0.58255414381283166</v>
+        <v>0.59483525445229879</v>
       </c>
       <c r="J36" s="1">
         <f>F36*I36</f>
-        <v>-4.0778790066898231E-5</v>
+        <v>8.9225288167844811E-5</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1878,201 +1867,115 @@
         <v>29</v>
       </c>
       <c r="C37" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>-5.6999999999999998E-4</v>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E37" s="4">
+        <v>-4.6999999999999999E-4</v>
       </c>
       <c r="F37" s="1">
         <f>SUM(C37:E37)</f>
-        <v>2.3000000000000006E-4</v>
+        <v>2.3000000000000001E-4</v>
       </c>
       <c r="H37" s="8">
-        <v>31786699</v>
+        <v>25492339</v>
       </c>
       <c r="I37" s="2">
         <f>H37/$H$38</f>
-        <v>0.4174458561871684</v>
+        <v>0.40516474554770127</v>
       </c>
       <c r="J37" s="1">
         <f>F37*I37</f>
-        <v>9.6012546923048762E-5</v>
+        <v>9.3187891475971291E-5</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="H38" s="9">
         <f>SUM(H36:H37)</f>
-        <v>76145681</v>
+        <v>62918453</v>
       </c>
       <c r="J38" s="1">
         <f>SUM(J36:J37)</f>
-        <v>5.5233756856150531E-5</v>
+        <v>1.824131796438161E-4</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="F40" s="1"/>
-      <c r="I40" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D41" s="4">
-        <v>4.4999999999999999E-4</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="1">
-        <f>SUM(C41:E41)+$D$4</f>
-        <v>2.4337499999999997E-3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="J41" s="1">
-        <f>I41*F41</f>
-        <v>1.9616025E-3</v>
-      </c>
+      <c r="F41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5.2999999999999998E-4</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ref="F42:F43" si="4">SUM(C42:E42)+$D$4</f>
-        <v>3.21375E-3</v>
-      </c>
-      <c r="I42" s="1">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" ref="J42:J43" si="5">I42*F42</f>
-        <v>3.1173375E-4</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="M42" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="4"/>
-        <v>3.88375E-3</v>
-      </c>
-      <c r="I43" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="5"/>
-        <v>3.7283999999999999E-4</v>
-      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="M43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="4">
-        <f>SUM(J41:J43)</f>
-        <v>2.64617625E-3</v>
-      </c>
+      <c r="J44" s="4"/>
       <c r="M44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="M45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E46" s="4">
-        <v>-1.2E-4</v>
-      </c>
-      <c r="F46" s="4">
-        <f>SUM(C46:E46)</f>
-        <v>1.2799999999999999E-3</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J46" s="4">
-        <f>I46*F46</f>
-        <v>1.13664E-3</v>
-      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="4"/>
       <c r="M46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E47" s="4">
-        <v>-1E-4</v>
-      </c>
-      <c r="F47" s="4">
-        <f>SUM(C47:E47)</f>
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.112</v>
-      </c>
-      <c r="J47" s="4">
-        <f>I47*F47</f>
-        <v>3.1360000000000003E-4</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="4"/>
       <c r="M47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J48" s="4">
-        <f>SUM(J46:J47)+(2.5%*12%)</f>
-        <v>4.4502400000000003E-3</v>
-      </c>
+      <c r="J48" s="4"/>
       <c r="M48" t="s">
         <v>36</v>
       </c>
@@ -2083,10 +1986,7 @@
       </c>
     </row>
     <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" s="4">
-        <f>J48-J44</f>
-        <v>1.8040637500000003E-3</v>
-      </c>
+      <c r="J50" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:G18">

--- a/2022.World-fondsen.xlsx
+++ b/2022.World-fondsen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE96ACA-D4CA-4521-9808-04BCD3D089DA}"/>
+  <xr:revisionPtr revIDLastSave="502" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E33AAAD-D464-47E0-82C6-291FE06E673E}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="2865" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Nederlands</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>gem afgelopen 5 jaar</t>
+  </si>
+  <si>
+    <t>CB</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1394,7 @@
   <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,11 +1652,30 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" ref="F19:F20" si="1">SUM(C20:E20)</f>
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F20+D4</f>
+        <v>3.6337499999999998E-3</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -1726,18 +1748,18 @@
         <v>-2.7E-4</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" ref="F30:F32" si="1">SUM(C30:E30)</f>
+        <f t="shared" ref="F30:F32" si="2">SUM(C30:E30)</f>
         <v>8.7999999999999992E-4</v>
       </c>
       <c r="H30" s="7">
         <v>9434145</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" ref="I30:I32" si="2">H30/$H$33</f>
+        <f t="shared" ref="I30:I32" si="3">H30/$H$33</f>
         <v>0.17855596962255846</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" ref="J30:J32" si="3">F30*I30</f>
+        <f t="shared" ref="J30:J32" si="4">F30*I30</f>
         <v>1.5712925326785143E-4</v>
       </c>
     </row>
@@ -1755,18 +1777,18 @@
         <v>-1E-4</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.65E-3</v>
       </c>
       <c r="H31" s="7">
         <v>2845983</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3864685575038103E-2</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8876731198812863E-5</v>
       </c>
     </row>
@@ -1784,18 +1806,18 @@
         <v>-1.2E-4</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.42E-3</v>
       </c>
       <c r="H32" s="7">
         <v>3710101</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.021947208280388E-2</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9711650357581517E-5</v>
       </c>
     </row>

--- a/2022.World-fondsen.xlsx
+++ b/2022.World-fondsen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="502" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E33AAAD-D464-47E0-82C6-291FE06E673E}"/>
+  <xr:revisionPtr revIDLastSave="503" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C071F1C-8E2F-4C25-A462-1BF9246B2584}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="2700" windowWidth="19200" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,14 +217,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1394,7 +1393,7 @@
   <dimension ref="B1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1451,7 @@
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.05</v>
       </c>
       <c r="D6" s="4">
@@ -1499,7 +1498,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4">
@@ -1519,7 +1518,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4"/>
@@ -1535,7 +1534,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="4">
@@ -1553,7 +1552,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4">
@@ -1573,7 +1572,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4"/>
@@ -1589,7 +1588,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4">
@@ -1609,7 +1608,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="4">
@@ -1631,7 +1630,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4">
@@ -1669,7 +1668,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" ref="F19:F20" si="1">SUM(C20:E20)</f>
+        <f t="shared" ref="F20" si="1">SUM(C20:E20)</f>
         <v>3.4499999999999999E-3</v>
       </c>
       <c r="G20" s="1">
@@ -1710,7 +1709,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4">
@@ -1722,7 +1721,7 @@
         <f>SUM(C29:E29)</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>36845557</v>
       </c>
       <c r="I29" s="2">
@@ -1751,7 +1750,7 @@
         <f t="shared" ref="F30:F32" si="2">SUM(C30:E30)</f>
         <v>8.7999999999999992E-4</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>9434145</v>
       </c>
       <c r="I30" s="2">
@@ -1780,7 +1779,7 @@
         <f t="shared" si="2"/>
         <v>1.65E-3</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>2845983</v>
       </c>
       <c r="I31" s="2">
@@ -1809,7 +1808,7 @@
         <f t="shared" si="2"/>
         <v>1.42E-3</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>3710101</v>
       </c>
       <c r="I32" s="2">
@@ -1822,7 +1821,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f>SUM(H29:H32)</f>
         <v>52835786</v>
       </c>
@@ -1872,7 +1871,7 @@
         <f>SUM(C36:E36)</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>37426114</v>
       </c>
       <c r="I36" s="2">
@@ -1898,7 +1897,7 @@
         <f>SUM(C37:E37)</f>
         <v>2.3000000000000001E-4</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>25492339</v>
       </c>
       <c r="I37" s="2">
@@ -1912,7 +1911,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <f>SUM(H36:H37)</f>
         <v>62918453</v>
       </c>
@@ -1930,7 +1929,6 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1939,7 +1937,6 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
@@ -1950,7 +1947,6 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
@@ -1973,7 +1969,6 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -1985,7 +1980,6 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="4"/>
